--- a/src/output/opt/R/data.xlsx
+++ b/src/output/opt/R/data.xlsx
@@ -64,7 +64,7 @@
     <col min="3" max="3" width="4" customWidth="true"/>
     <col min="4" max="4" width="4" customWidth="true"/>
     <col min="5" max="5" width="3" customWidth="true"/>
-    <col min="6" max="6" width="4" customWidth="true"/>
+    <col min="6" max="6" width="5" customWidth="true"/>
     <col min="7" max="7" width="4.5546875" customWidth="true"/>
     <col min="8" max="8" width="3" customWidth="true"/>
     <col min="9" max="9" width="4" customWidth="true"/>
@@ -83,40 +83,40 @@
         <v>1000</v>
       </c>
       <c r="C1" s="0">
-        <v>0.10000000000000001</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0">
-        <v>0.10000000000000001</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0">
         <v>10</v>
       </c>
       <c r="F1" s="0">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1" s="0">
-        <v>0.94999999999999996</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="H1" s="0">
         <v>10</v>
       </c>
       <c r="I1" s="0">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="J1" s="0">
-        <v>10.7324582</v>
+        <v>213.08416120000001</v>
       </c>
       <c r="K1" s="0">
-        <v>4.2790412724258431e-07</v>
+        <v>0.0007576597181940814</v>
       </c>
       <c r="L1" s="0">
-        <v>3.0325809152530039e-09</v>
+        <v>2.4923497822553358e-05</v>
       </c>
       <c r="M1" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N1" s="0">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
